--- a/P05/Scrum_ELSA_Sprint_1.xlsx
+++ b/P05/Scrum_ELSA_Sprint_1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tyler\cse1325\P05\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADC11D68-26FD-4418-844A-1A8F2C3C1F69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E218F9D-157B-48E3-B724-A393714899F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Product Backlog" sheetId="1" r:id="rId1"/>
@@ -21,8 +21,19 @@
     <sheet name="Sprint 05 Backlog" sheetId="6" r:id="rId6"/>
     <sheet name="Sprint 06 Backlog" sheetId="7" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
     </ext>
@@ -31,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="145">
   <si>
     <t>Product Name:</t>
   </si>
@@ -444,9 +455,6 @@
     <t>In Work</t>
   </si>
   <si>
-    <t>In Test</t>
-  </si>
-  <si>
     <t>Not Started</t>
   </si>
   <si>
@@ -463,6 +471,12 @@
   </si>
   <si>
     <t>Find and modify code from cse1325-prof/P05/baseline</t>
+  </si>
+  <si>
+    <t>Finished in Sprint 1</t>
+  </si>
+  <si>
+    <t>Completed Day 5</t>
   </si>
 </sst>
 </file>
@@ -964,19 +978,19 @@
                   <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>17</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>17</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>17</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>17</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>17</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1276,13 +1290,13 @@
                   <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3637,8 +3651,8 @@
   </sheetPr>
   <dimension ref="A1:AMJ94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="I27" sqref="I27"/>
+    <sheetView topLeftCell="A22" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3838,11 +3852,11 @@
       </c>
       <c r="B13" s="5">
         <f>B12-C13</f>
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C13" s="9">
         <f>COUNTIF(G$24:G$100,"Finished in Sprint 1")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D13" s="9"/>
       <c r="E13" s="5"/>
@@ -3862,7 +3876,7 @@
       </c>
       <c r="B14" s="5">
         <f>B13-C14</f>
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C14" s="9">
         <f>COUNTIF(G$24:G$100,"Finished in Sprint 2")</f>
@@ -3886,7 +3900,7 @@
       </c>
       <c r="B15" s="5">
         <f>B14-C15</f>
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C15" s="9">
         <f>COUNTIF(G$24:G$100,"Finished in Sprint 3")</f>
@@ -3910,7 +3924,7 @@
       </c>
       <c r="B16" s="5">
         <f>B15-C16</f>
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C16" s="9">
         <f>COUNTIF(G$24:G$100,"Finished in Sprint 4")</f>
@@ -3930,7 +3944,7 @@
       </c>
       <c r="B17" s="5">
         <f>B16-C17</f>
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C17" s="9">
         <f>COUNTIF(G$24:G$100,"Finished in Sprint 4")</f>
@@ -4065,7 +4079,7 @@
         <v>1</v>
       </c>
       <c r="G24" s="17" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="H24" s="18" t="s">
         <v>31</v>
@@ -4098,7 +4112,7 @@
         <v>1</v>
       </c>
       <c r="G25" s="17" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="H25" s="18" t="s">
         <v>36</v>
@@ -4193,7 +4207,7 @@
         <v>1</v>
       </c>
       <c r="G28" s="17" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H28" s="18" t="s">
         <v>31</v>
@@ -5389,8 +5403,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AMJ100"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" topLeftCell="B4" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -5580,11 +5594,11 @@
       </c>
       <c r="B12" s="25">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C12" s="25">
         <f>COUNTIF(E$17:E$995, "Completed Day 5")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D12" s="25"/>
       <c r="E12" s="25"/>
@@ -5598,7 +5612,7 @@
       </c>
       <c r="B13" s="25">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C13" s="25">
         <f>COUNTIF(E$17:E$995, "Completed Day 6")</f>
@@ -5616,7 +5630,7 @@
       </c>
       <c r="B14" s="25">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C14" s="25">
         <f>COUNTIF(E$17:E$995, "Completed Day 7")</f>
@@ -5667,10 +5681,10 @@
       </c>
       <c r="C17" s="4"/>
       <c r="D17" s="36" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E17" s="37" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="F17" s="38"/>
     </row>
@@ -5683,10 +5697,10 @@
       </c>
       <c r="C18" s="4"/>
       <c r="D18" s="39" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E18" s="37" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="F18" s="38"/>
     </row>
@@ -5699,7 +5713,7 @@
       </c>
       <c r="C19" s="4"/>
       <c r="D19" s="39" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E19" s="37" t="s">
         <v>136</v>
@@ -5715,7 +5729,7 @@
       </c>
       <c r="C20" s="4"/>
       <c r="D20" s="39" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E20" s="37" t="s">
         <v>136</v>
@@ -5731,9 +5745,11 @@
       </c>
       <c r="C21" s="4"/>
       <c r="D21" s="39" t="s">
-        <v>143</v>
-      </c>
-      <c r="E21" s="37"/>
+        <v>142</v>
+      </c>
+      <c r="E21" s="37" t="s">
+        <v>136</v>
+      </c>
       <c r="F21" s="38"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">

--- a/P05/Scrum_ELSA_Sprint_1.xlsx
+++ b/P05/Scrum_ELSA_Sprint_1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tyler\cse1325\P05\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E218F9D-157B-48E3-B724-A393714899F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF16C5FC-BAFC-4669-856A-9314C7C0A9A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -455,9 +455,6 @@
     <t>In Work</t>
   </si>
   <si>
-    <t>Not Started</t>
-  </si>
-  <si>
     <t>Finish equals()</t>
   </si>
   <si>
@@ -477,6 +474,9 @@
   </si>
   <si>
     <t>Completed Day 5</t>
+  </si>
+  <si>
+    <t>Completed Day 6</t>
   </si>
 </sst>
 </file>
@@ -978,19 +978,19 @@
                   <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>15</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>15</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>15</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>15</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>15</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1293,10 +1293,10 @@
                   <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1511,7 +1511,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr sz="1300" b="0" strike="noStrike" spc="-1">
+              <a:rPr lang="en-US" sz="1300" b="0" strike="noStrike" spc="-1">
                 <a:latin typeface="Arial"/>
               </a:rPr>
               <a:t>Sprint Burn Chart</a:t>
@@ -1660,7 +1660,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr sz="900" b="0" strike="noStrike" spc="-1">
+                  <a:rPr lang="en-US" sz="900" b="0" strike="noStrike" spc="-1">
                     <a:latin typeface="Arial"/>
                   </a:rPr>
                   <a:t>Days</a:t>
@@ -1734,7 +1734,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr sz="900" b="0" strike="noStrike" spc="-1">
+                  <a:rPr lang="en-US" sz="900" b="0" strike="noStrike" spc="-1">
                     <a:latin typeface="Arial"/>
                   </a:rPr>
                   <a:t>Tasks</a:t>
@@ -3652,7 +3652,7 @@
   <dimension ref="A1:AMJ94"/>
   <sheetViews>
     <sheetView topLeftCell="A22" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+      <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3852,11 +3852,11 @@
       </c>
       <c r="B13" s="5">
         <f>B12-C13</f>
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C13" s="9">
         <f>COUNTIF(G$24:G$100,"Finished in Sprint 1")</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D13" s="9"/>
       <c r="E13" s="5"/>
@@ -3876,7 +3876,7 @@
       </c>
       <c r="B14" s="5">
         <f>B13-C14</f>
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C14" s="9">
         <f>COUNTIF(G$24:G$100,"Finished in Sprint 2")</f>
@@ -3900,7 +3900,7 @@
       </c>
       <c r="B15" s="5">
         <f>B14-C15</f>
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C15" s="9">
         <f>COUNTIF(G$24:G$100,"Finished in Sprint 3")</f>
@@ -3924,7 +3924,7 @@
       </c>
       <c r="B16" s="5">
         <f>B15-C16</f>
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C16" s="9">
         <f>COUNTIF(G$24:G$100,"Finished in Sprint 4")</f>
@@ -3944,7 +3944,7 @@
       </c>
       <c r="B17" s="5">
         <f>B16-C17</f>
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C17" s="9">
         <f>COUNTIF(G$24:G$100,"Finished in Sprint 4")</f>
@@ -4079,7 +4079,7 @@
         <v>1</v>
       </c>
       <c r="G24" s="17" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H24" s="18" t="s">
         <v>31</v>
@@ -4112,7 +4112,7 @@
         <v>1</v>
       </c>
       <c r="G25" s="17" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H25" s="18" t="s">
         <v>36</v>
@@ -4145,7 +4145,7 @@
         <v>1</v>
       </c>
       <c r="G26" s="17" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="H26" s="18" t="s">
         <v>31</v>
@@ -4207,7 +4207,7 @@
         <v>1</v>
       </c>
       <c r="G28" s="17" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="H28" s="18" t="s">
         <v>31</v>
@@ -5404,7 +5404,7 @@
   <dimension ref="A1:AMJ100"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B4" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -5612,11 +5612,11 @@
       </c>
       <c r="B13" s="25">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C13" s="25">
         <f>COUNTIF(E$17:E$995, "Completed Day 6")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D13" s="25"/>
       <c r="E13" s="25"/>
@@ -5630,7 +5630,7 @@
       </c>
       <c r="B14" s="25">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C14" s="25">
         <f>COUNTIF(E$17:E$995, "Completed Day 7")</f>
@@ -5681,10 +5681,10 @@
       </c>
       <c r="C17" s="4"/>
       <c r="D17" s="36" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E17" s="37" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F17" s="38"/>
     </row>
@@ -5697,10 +5697,10 @@
       </c>
       <c r="C18" s="4"/>
       <c r="D18" s="39" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E18" s="37" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F18" s="38"/>
     </row>
@@ -5713,10 +5713,10 @@
       </c>
       <c r="C19" s="4"/>
       <c r="D19" s="39" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E19" s="37" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="F19" s="38"/>
     </row>
@@ -5729,7 +5729,7 @@
       </c>
       <c r="C20" s="4"/>
       <c r="D20" s="39" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E20" s="37" t="s">
         <v>136</v>
@@ -5745,10 +5745,10 @@
       </c>
       <c r="C21" s="4"/>
       <c r="D21" s="39" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E21" s="37" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="F21" s="38"/>
     </row>
